--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,12 +946,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking</t>
+          <t>Home Point Recorded Taking off</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1337,21 +1337,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1362,71 +1362,71 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Then tap Go</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1437,71 +1437,71 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Drag a box around or tap a target on screen Then tap Go</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1512,71 +1512,71 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Aircraft GPS signal too weak Home Point not updated</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1587,46 +1587,46 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1662,21 +1662,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Low Power Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1687,21 +1687,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1712,21 +1712,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1737,21 +1737,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1762,99 +1762,299 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>The target area is in an Altitude Zone Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
+        <v>20</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>20</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>20</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance is not available</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9-13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>21</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>21</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>21</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0-10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
         <v>22</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>22</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>22</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>0-10</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,12 +946,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off</t>
+          <t>Home Point Recorded Taking</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1337,21 +1337,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1362,71 +1362,71 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>Aircraft GPS signal too weak Home Point not updated</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Then tap Go</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1437,71 +1437,71 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen Then tap Go</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1512,71 +1512,71 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Low Power Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1587,46 +1587,46 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1637,21 +1637,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1662,21 +1662,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1687,21 +1687,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1712,21 +1712,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1737,21 +1737,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1762,299 +1762,99 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone Flight altitude restricted to nnn</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>20</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>6-13</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>20</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Obstacle Avoidance is not available</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>9-13</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>21</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>21</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>21</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>22</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>22</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>22</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0-10</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
         <is>
           <t>False</t>
         </is>
